--- a/AzentioAutomationFramework_FMS_kowsalyaa/TestData/IISTestData.xlsx
+++ b/AzentioAutomationFramework_FMS_kowsalyaa/TestData/IISTestData.xlsx
@@ -4,19 +4,20 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="135" windowWidth="21075" windowHeight="8010" activeTab="1"/>
+    <workbookView xWindow="120" yWindow="135" windowWidth="21075" windowHeight="8010" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="IIS_Login" sheetId="1" r:id="rId1"/>
     <sheet name="IISParam_Login" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="AccrualDeal_611" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="72">
   <si>
     <t>UserType</t>
   </si>
@@ -139,12 +140,106 @@
   </si>
   <si>
     <t>FMS_ParamUser12</t>
+  </si>
+  <si>
+    <t>TestCaseID</t>
+  </si>
+  <si>
+    <t>DataSet ID</t>
+  </si>
+  <si>
+    <t>Party Value</t>
+  </si>
+  <si>
+    <t>Category Code</t>
+  </si>
+  <si>
+    <t>Product Class</t>
+  </si>
+  <si>
+    <t>Amount</t>
+  </si>
+  <si>
+    <t>Yield Margin</t>
+  </si>
+  <si>
+    <t>No of Payments</t>
+  </si>
+  <si>
+    <t>Deal Nbr</t>
+  </si>
+  <si>
+    <t>Party Amt</t>
+  </si>
+  <si>
+    <t>Settlement Nbr</t>
+  </si>
+  <si>
+    <t>AT_AD_004</t>
+  </si>
+  <si>
+    <t>DS_AT_AD_004</t>
+  </si>
+  <si>
+    <t>AT_AD_005</t>
+  </si>
+  <si>
+    <t>AT_AD_006</t>
+  </si>
+  <si>
+    <t>DS_AT_AD_005</t>
+  </si>
+  <si>
+    <t>DS_AT_AD_006</t>
+  </si>
+  <si>
+    <t>AT_AD_008</t>
+  </si>
+  <si>
+    <t>FromDate</t>
+  </si>
+  <si>
+    <t>Todate</t>
+  </si>
+  <si>
+    <t>04/01/2008</t>
+  </si>
+  <si>
+    <t>DS_AT_AD_008</t>
+  </si>
+  <si>
+    <t>AT_AD_009</t>
+  </si>
+  <si>
+    <t>DS_AT_AD_009</t>
+  </si>
+  <si>
+    <t>AdvPrincipalSettlementAmount</t>
+  </si>
+  <si>
+    <t>5529</t>
+  </si>
+  <si>
+    <t>5530</t>
+  </si>
+  <si>
+    <t>5543</t>
+  </si>
+  <si>
+    <t>9619</t>
+  </si>
+  <si>
+    <t>5544</t>
+  </si>
+  <si>
+    <t>9620</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
   <fonts count="3">
     <font>
       <sz val="11"/>
@@ -167,7 +262,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -192,8 +287,20 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.499984740745262"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -216,16 +323,52 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="0" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -528,12 +671,12 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="13.42578125" style="2" customWidth="1"/>
-    <col min="2" max="2" width="10.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="16384" width="9.28515625" style="2"/>
+    <col min="1" max="1" customWidth="true" style="2" width="13.42578125" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" style="2" width="10.42578125" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" style="2" width="9.42578125" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" style="2" width="14.0" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" style="2" width="11.5703125" collapsed="true"/>
+    <col min="6" max="16384" style="2" width="9.28515625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
@@ -766,18 +909,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K21" sqref="K21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="17.85546875" style="2" customWidth="1"/>
-    <col min="2" max="2" width="10.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.5703125" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="16384" width="9.28515625" style="2"/>
+    <col min="1" max="1" customWidth="true" style="2" width="17.85546875" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" style="2" width="10.42578125" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" style="2" width="9.42578125" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" style="2" width="14.0" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" style="2" width="11.5703125" collapsed="true"/>
+    <col min="6" max="16384" style="2" width="9.28515625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
@@ -1016,4 +1159,250 @@
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:N6"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I12" sqref="I12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" customWidth="true" width="16.7109375" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="18.28515625" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="22.0" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="20.42578125" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="25.0" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="16.42578125" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="16.0" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="16.5703125" collapsed="true"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" width="8.8828125" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="14.85546875" collapsed="true"/>
+    <col min="11" max="11" bestFit="true" customWidth="true" width="14.80078125" collapsed="true"/>
+    <col min="12" max="12" customWidth="true" style="11" width="11.140625" collapsed="true"/>
+    <col min="13" max="13" customWidth="true" style="11" width="14.28515625" collapsed="true"/>
+    <col min="14" max="14" customWidth="true" width="32.85546875" collapsed="true"/>
+    <col min="15" max="15" customWidth="true" width="27.5703125" collapsed="true"/>
+    <col min="16" max="16" customWidth="true" width="15.42578125" collapsed="true"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:14" s="5" customFormat="1">
+      <c r="A1" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="E1" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="F1" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="G1" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="H1" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="I1" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="J1" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="K1" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="L1" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="M1" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="N1" s="5" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14">
+      <c r="A2" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="C2" s="8">
+        <v>727</v>
+      </c>
+      <c r="D2" s="8">
+        <v>3</v>
+      </c>
+      <c r="E2" s="8">
+        <v>100</v>
+      </c>
+      <c r="F2" s="8">
+        <v>10500</v>
+      </c>
+      <c r="G2" s="8"/>
+      <c r="H2" s="8"/>
+      <c r="I2" s="8"/>
+      <c r="J2" s="8">
+        <v>1000</v>
+      </c>
+      <c r="K2" s="8"/>
+      <c r="L2" s="10"/>
+      <c r="M2" s="10"/>
+      <c r="N2" s="8"/>
+    </row>
+    <row r="3" spans="1:14">
+      <c r="A3" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="C3" s="8">
+        <v>727</v>
+      </c>
+      <c r="D3" s="8">
+        <v>3</v>
+      </c>
+      <c r="E3" s="8">
+        <v>118</v>
+      </c>
+      <c r="F3" s="8">
+        <v>15000</v>
+      </c>
+      <c r="G3" s="8"/>
+      <c r="H3" s="8"/>
+      <c r="I3" s="8"/>
+      <c r="J3" s="8">
+        <v>1000</v>
+      </c>
+      <c r="K3" s="8"/>
+      <c r="L3" s="10"/>
+      <c r="M3" s="10"/>
+      <c r="N3" s="8"/>
+    </row>
+    <row r="4" spans="1:14">
+      <c r="A4" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="C4" s="8">
+        <v>727</v>
+      </c>
+      <c r="D4" s="8">
+        <v>11</v>
+      </c>
+      <c r="E4" s="8">
+        <v>163</v>
+      </c>
+      <c r="F4" s="8">
+        <v>1500000</v>
+      </c>
+      <c r="G4" s="8">
+        <v>8.5</v>
+      </c>
+      <c r="H4" s="8">
+        <v>48</v>
+      </c>
+      <c r="I4" s="8">
+        <v>5409</v>
+      </c>
+      <c r="J4" s="8">
+        <v>100</v>
+      </c>
+      <c r="K4" s="8">
+        <v>9586</v>
+      </c>
+      <c r="L4" s="10"/>
+      <c r="M4" s="10"/>
+      <c r="N4" s="8"/>
+    </row>
+    <row r="5" spans="1:14">
+      <c r="A5" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="C5" s="8">
+        <v>727</v>
+      </c>
+      <c r="D5" s="8">
+        <v>3</v>
+      </c>
+      <c r="E5" s="8">
+        <v>100</v>
+      </c>
+      <c r="F5" s="8">
+        <v>10500</v>
+      </c>
+      <c r="G5" s="8"/>
+      <c r="H5" s="8"/>
+      <c r="I5" s="8"/>
+      <c r="J5" s="8">
+        <v>1000</v>
+      </c>
+      <c r="K5" s="8"/>
+      <c r="L5" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="M5" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="N5" s="8"/>
+    </row>
+    <row r="6" spans="1:14">
+      <c r="A6" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="B6" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="C6" s="8">
+        <v>727</v>
+      </c>
+      <c r="D6" s="8">
+        <v>3</v>
+      </c>
+      <c r="E6" s="8">
+        <v>100</v>
+      </c>
+      <c r="F6" s="8">
+        <v>10500</v>
+      </c>
+      <c r="G6" s="8"/>
+      <c r="H6" s="8"/>
+      <c r="I6" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="J6" s="8">
+        <v>1000</v>
+      </c>
+      <c r="K6" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="L6" s="10"/>
+      <c r="M6" s="10"/>
+      <c r="N6" s="8">
+        <v>500</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/AzentioAutomationFramework_FMS_kowsalyaa/TestData/IISTestData.xlsx
+++ b/AzentioAutomationFramework_FMS_kowsalyaa/TestData/IISTestData.xlsx
@@ -11,13 +11,16 @@
     <sheet name="IISParam_Login" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
     <sheet name="AccrualDeal_611" sheetId="4" r:id="rId4"/>
+    <sheet name="MTSTestData" sheetId="5" r:id="rId5"/>
+    <sheet name="MTS_Login" sheetId="6" r:id="rId6"/>
+    <sheet name="AccrualProcess" sheetId="7" r:id="rId7"/>
   </sheets>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="97">
   <si>
     <t>UserType</t>
   </si>
@@ -217,30 +220,104 @@
     <t>AdvPrincipalSettlementAmount</t>
   </si>
   <si>
-    <t>5529</t>
-  </si>
-  <si>
-    <t>5530</t>
-  </si>
-  <si>
-    <t>5543</t>
-  </si>
-  <si>
-    <t>9619</t>
-  </si>
-  <si>
-    <t>5544</t>
-  </si>
-  <si>
-    <t>9620</t>
+    <t>AT_AP_013</t>
+  </si>
+  <si>
+    <t>DS_AT_AP_013</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15/02/2010 </t>
+  </si>
+  <si>
+    <t>AT_AP_014</t>
+  </si>
+  <si>
+    <t>DS_AT_AP_014</t>
+  </si>
+  <si>
+    <t>Additional Ref</t>
+  </si>
+  <si>
+    <t>Brief Name</t>
+  </si>
+  <si>
+    <t>Long Name</t>
+  </si>
+  <si>
+    <t>Menu Ref</t>
+  </si>
+  <si>
+    <t>Periodicity DD</t>
+  </si>
+  <si>
+    <t>Process Batch DD</t>
+  </si>
+  <si>
+    <t>Batch Run Date</t>
+  </si>
+  <si>
+    <t>Daily</t>
+  </si>
+  <si>
+    <t>Manually</t>
+  </si>
+  <si>
+    <t>AT_AP_048</t>
+  </si>
+  <si>
+    <t>DS_AT_AP_048</t>
+  </si>
+  <si>
+    <t>Testdata</t>
+  </si>
+  <si>
+    <t>09/07/2014</t>
+  </si>
+  <si>
+    <t>VAK</t>
+  </si>
+  <si>
+    <t>MTS_User13</t>
+  </si>
+  <si>
+    <t>AT_AP_049</t>
+  </si>
+  <si>
+    <t>DS_AT_AP_049</t>
+  </si>
+  <si>
+    <t>31/01/2010</t>
+  </si>
+  <si>
+    <t>AT_AP_050</t>
+  </si>
+  <si>
+    <t>DS_AT_AP_050</t>
+  </si>
+  <si>
+    <t>AT_AP_051</t>
+  </si>
+  <si>
+    <t>DS_AT_AP_051</t>
+  </si>
+  <si>
+    <t>AT_AP_052</t>
+  </si>
+  <si>
+    <t>DS_AT_AP_052</t>
+  </si>
+  <si>
+    <t>AT_AD_007</t>
+  </si>
+  <si>
+    <t>DS_AT_AD_007</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="3">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -261,8 +338,15 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="7">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -296,6 +380,24 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-0.499984740745262"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -355,7 +457,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
@@ -369,6 +471,30 @@
     <xf numFmtId="49" fontId="0" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="8" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="7" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="7" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -666,17 +792,17 @@
   <dimension ref="A1:E13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+      <selection sqref="A1:E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" customWidth="true" style="2" width="13.42578125" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" style="2" width="10.42578125" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" style="2" width="9.42578125" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" style="2" width="14.0" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" style="2" width="11.5703125" collapsed="true"/>
-    <col min="6" max="16384" style="2" width="9.28515625" collapsed="true"/>
+    <col min="1" max="1" width="13.42578125" style="2" customWidth="1"/>
+    <col min="2" max="2" width="10.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="16384" width="9.28515625" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
@@ -915,12 +1041,12 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" customWidth="true" style="2" width="17.85546875" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" style="2" width="10.42578125" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" style="2" width="9.42578125" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" style="2" width="14.0" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" style="2" width="11.5703125" collapsed="true"/>
-    <col min="6" max="16384" style="2" width="9.28515625" collapsed="true"/>
+    <col min="1" max="1" width="17.85546875" style="2" customWidth="1"/>
+    <col min="2" max="2" width="10.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="16384" width="9.28515625" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
@@ -1163,30 +1289,30 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N6"/>
+  <dimension ref="A1:N7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I12" sqref="I12"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="16.7109375" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="18.28515625" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="22.0" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="20.42578125" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="25.0" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="16.42578125" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="16.0" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" width="16.5703125" collapsed="true"/>
-    <col min="9" max="9" bestFit="true" customWidth="true" width="8.8828125" collapsed="true"/>
-    <col min="10" max="10" customWidth="true" width="14.85546875" collapsed="true"/>
-    <col min="11" max="11" bestFit="true" customWidth="true" width="14.80078125" collapsed="true"/>
-    <col min="12" max="12" customWidth="true" style="11" width="11.140625" collapsed="true"/>
-    <col min="13" max="13" customWidth="true" style="11" width="14.28515625" collapsed="true"/>
-    <col min="14" max="14" customWidth="true" width="32.85546875" collapsed="true"/>
-    <col min="15" max="15" customWidth="true" width="27.5703125" collapsed="true"/>
-    <col min="16" max="16" customWidth="true" width="15.42578125" collapsed="true"/>
+    <col min="1" max="1" width="16.7109375" customWidth="1"/>
+    <col min="2" max="2" width="18.28515625" customWidth="1"/>
+    <col min="3" max="3" width="22" customWidth="1"/>
+    <col min="4" max="4" width="20.42578125" customWidth="1"/>
+    <col min="5" max="5" width="25" customWidth="1"/>
+    <col min="6" max="6" width="16.42578125" customWidth="1"/>
+    <col min="7" max="7" width="16" customWidth="1"/>
+    <col min="8" max="8" width="16.5703125" customWidth="1"/>
+    <col min="9" max="9" width="15.85546875" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" customWidth="1"/>
+    <col min="11" max="11" width="20.140625" customWidth="1"/>
+    <col min="12" max="12" width="11.140625" style="11" customWidth="1"/>
+    <col min="13" max="13" width="14.28515625" style="11" customWidth="1"/>
+    <col min="14" max="14" width="32.85546875" customWidth="1"/>
+    <col min="15" max="15" width="27.5703125" customWidth="1"/>
+    <col min="16" max="16" width="15.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" s="5" customFormat="1">
@@ -1318,9 +1444,7 @@
       <c r="H4" s="8">
         <v>48</v>
       </c>
-      <c r="I4" s="8">
-        <v>5409</v>
-      </c>
+      <c r="I4" s="8"/>
       <c r="J4" s="8">
         <v>100</v>
       </c>
@@ -1386,23 +1510,698 @@
       </c>
       <c r="G6" s="8"/>
       <c r="H6" s="8"/>
-      <c r="I6" s="8" t="s">
-        <v>70</v>
-      </c>
+      <c r="I6" s="8"/>
       <c r="J6" s="8">
         <v>1000</v>
       </c>
-      <c r="K6" s="8" t="s">
-        <v>71</v>
-      </c>
+      <c r="K6" s="8"/>
       <c r="L6" s="10"/>
       <c r="M6" s="10"/>
       <c r="N6" s="8">
         <v>500</v>
       </c>
     </row>
+    <row r="7" spans="1:14">
+      <c r="A7" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="B7" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="C7" s="8">
+        <v>727</v>
+      </c>
+      <c r="D7" s="8">
+        <v>11</v>
+      </c>
+      <c r="E7" s="8">
+        <v>163</v>
+      </c>
+      <c r="F7" s="8">
+        <v>1500000</v>
+      </c>
+      <c r="G7" s="8">
+        <v>8.5</v>
+      </c>
+      <c r="H7" s="8">
+        <v>48</v>
+      </c>
+      <c r="I7" s="8"/>
+      <c r="J7" s="8">
+        <v>100</v>
+      </c>
+      <c r="K7" s="8">
+        <v>9586</v>
+      </c>
+      <c r="L7" s="10"/>
+      <c r="M7" s="10"/>
+      <c r="N7" s="8"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:I5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C1" sqref="C1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="19.5703125" customWidth="1"/>
+    <col min="2" max="2" width="21.5703125" customWidth="1"/>
+    <col min="3" max="4" width="15.42578125" customWidth="1"/>
+    <col min="5" max="5" width="29" customWidth="1"/>
+    <col min="6" max="6" width="22.42578125" customWidth="1"/>
+    <col min="7" max="7" width="22.140625" customWidth="1"/>
+    <col min="8" max="8" width="19.140625" customWidth="1"/>
+    <col min="9" max="9" width="25.5703125" style="11" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9">
+      <c r="A1" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="B1" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="C1" s="14" t="s">
+        <v>71</v>
+      </c>
+      <c r="D1" s="14" t="s">
+        <v>72</v>
+      </c>
+      <c r="E1" s="14" t="s">
+        <v>73</v>
+      </c>
+      <c r="F1" s="14" t="s">
+        <v>74</v>
+      </c>
+      <c r="G1" s="14" t="s">
+        <v>75</v>
+      </c>
+      <c r="H1" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="I1" s="18" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
+      <c r="A2" s="15" t="s">
+        <v>80</v>
+      </c>
+      <c r="B2" s="16" t="s">
+        <v>81</v>
+      </c>
+      <c r="C2" s="17">
+        <v>4567</v>
+      </c>
+      <c r="D2" s="17" t="s">
+        <v>82</v>
+      </c>
+      <c r="E2" s="17" t="s">
+        <v>82</v>
+      </c>
+      <c r="F2" s="17">
+        <v>456</v>
+      </c>
+      <c r="G2" s="17" t="s">
+        <v>78</v>
+      </c>
+      <c r="H2" s="17" t="s">
+        <v>79</v>
+      </c>
+      <c r="I2" s="19" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
+      <c r="A3" s="7"/>
+      <c r="B3" s="7"/>
+      <c r="C3" s="13"/>
+      <c r="D3" s="13"/>
+      <c r="E3" s="13"/>
+      <c r="F3" s="13"/>
+      <c r="G3" s="13"/>
+      <c r="H3" s="13"/>
+      <c r="I3" s="20"/>
+    </row>
+    <row r="4" spans="1:9">
+      <c r="A4" s="7"/>
+      <c r="B4" s="7"/>
+      <c r="C4" s="13"/>
+      <c r="D4" s="13"/>
+      <c r="E4" s="13"/>
+      <c r="F4" s="13"/>
+      <c r="G4" s="13"/>
+      <c r="H4" s="13"/>
+      <c r="I4" s="20"/>
+    </row>
+    <row r="5" spans="1:9">
+      <c r="A5" s="7"/>
+      <c r="B5" s="7"/>
+      <c r="C5" s="13"/>
+      <c r="D5" s="13"/>
+      <c r="E5" s="13"/>
+      <c r="F5" s="13"/>
+      <c r="G5" s="13"/>
+      <c r="H5" s="13"/>
+      <c r="I5" s="20"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:E14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E14" sqref="E14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="15.5703125" customWidth="1"/>
+    <col min="2" max="2" width="14.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" s="3">
+        <v>123</v>
+      </c>
+      <c r="D2" s="3">
+        <v>1</v>
+      </c>
+      <c r="E2" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" s="3">
+        <v>321</v>
+      </c>
+      <c r="D3" s="3">
+        <v>1</v>
+      </c>
+      <c r="E3" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" s="3">
+        <v>321</v>
+      </c>
+      <c r="D4" s="3">
+        <v>1</v>
+      </c>
+      <c r="E4" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5" s="3">
+        <v>321</v>
+      </c>
+      <c r="D5" s="3">
+        <v>1</v>
+      </c>
+      <c r="E5" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C6" s="3">
+        <v>321</v>
+      </c>
+      <c r="D6" s="3">
+        <v>1</v>
+      </c>
+      <c r="E6" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C7" s="3">
+        <v>321</v>
+      </c>
+      <c r="D7" s="3">
+        <v>1</v>
+      </c>
+      <c r="E7" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C8" s="3">
+        <v>321</v>
+      </c>
+      <c r="D8" s="3">
+        <v>1</v>
+      </c>
+      <c r="E8" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C9" s="3">
+        <v>321</v>
+      </c>
+      <c r="D9" s="3">
+        <v>1</v>
+      </c>
+      <c r="E9" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C10" s="3">
+        <v>321</v>
+      </c>
+      <c r="D10" s="3">
+        <v>1</v>
+      </c>
+      <c r="E10" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C11" s="3">
+        <v>321</v>
+      </c>
+      <c r="D11" s="3">
+        <v>1</v>
+      </c>
+      <c r="E11" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C12" s="3">
+        <v>321</v>
+      </c>
+      <c r="D12" s="3">
+        <v>1</v>
+      </c>
+      <c r="E12" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C13" s="3">
+        <v>321</v>
+      </c>
+      <c r="D13" s="3">
+        <v>1</v>
+      </c>
+      <c r="E13" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="C14" s="3">
+        <v>123</v>
+      </c>
+      <c r="D14" s="3">
+        <v>1</v>
+      </c>
+      <c r="E14" s="3">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:N7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J18" sqref="J18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="19" customWidth="1"/>
+    <col min="2" max="2" width="13.7109375" customWidth="1"/>
+    <col min="3" max="3" width="18.5703125" customWidth="1"/>
+    <col min="4" max="4" width="18.7109375" customWidth="1"/>
+    <col min="5" max="5" width="21" customWidth="1"/>
+    <col min="6" max="6" width="20.28515625" customWidth="1"/>
+    <col min="7" max="7" width="18.5703125" customWidth="1"/>
+    <col min="8" max="8" width="18.7109375" customWidth="1"/>
+    <col min="9" max="9" width="15.28515625" customWidth="1"/>
+    <col min="10" max="10" width="15.140625" customWidth="1"/>
+    <col min="11" max="11" width="18.140625" customWidth="1"/>
+    <col min="12" max="12" width="12.85546875" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" customWidth="1"/>
+    <col min="14" max="14" width="31.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:14" s="24" customFormat="1">
+      <c r="A1" s="21" t="s">
+        <v>41</v>
+      </c>
+      <c r="B1" s="21" t="s">
+        <v>42</v>
+      </c>
+      <c r="C1" s="21" t="s">
+        <v>43</v>
+      </c>
+      <c r="D1" s="21" t="s">
+        <v>44</v>
+      </c>
+      <c r="E1" s="21" t="s">
+        <v>45</v>
+      </c>
+      <c r="F1" s="21" t="s">
+        <v>46</v>
+      </c>
+      <c r="G1" s="21" t="s">
+        <v>47</v>
+      </c>
+      <c r="H1" s="21" t="s">
+        <v>48</v>
+      </c>
+      <c r="I1" s="21" t="s">
+        <v>49</v>
+      </c>
+      <c r="J1" s="21" t="s">
+        <v>50</v>
+      </c>
+      <c r="K1" s="22" t="s">
+        <v>51</v>
+      </c>
+      <c r="L1" s="23" t="s">
+        <v>59</v>
+      </c>
+      <c r="M1" s="23" t="s">
+        <v>60</v>
+      </c>
+      <c r="N1" s="24" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14">
+      <c r="A2" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="C2" s="8">
+        <v>727</v>
+      </c>
+      <c r="D2" s="8">
+        <v>3</v>
+      </c>
+      <c r="E2" s="8">
+        <v>100</v>
+      </c>
+      <c r="F2" s="8">
+        <v>15000</v>
+      </c>
+      <c r="G2" s="8"/>
+      <c r="H2" s="8"/>
+      <c r="I2" s="8"/>
+      <c r="J2" s="8">
+        <v>1000</v>
+      </c>
+      <c r="K2" s="8"/>
+      <c r="L2" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="M2" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="N2" s="8"/>
+    </row>
+    <row r="3" spans="1:14">
+      <c r="A3" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="C3" s="8">
+        <v>727</v>
+      </c>
+      <c r="D3" s="8">
+        <v>3</v>
+      </c>
+      <c r="E3" s="8">
+        <v>100</v>
+      </c>
+      <c r="F3" s="8">
+        <v>15000</v>
+      </c>
+      <c r="G3" s="8"/>
+      <c r="H3" s="8"/>
+      <c r="I3" s="8"/>
+      <c r="J3" s="8">
+        <v>1000</v>
+      </c>
+      <c r="K3" s="8"/>
+      <c r="L3" s="10" t="s">
+        <v>88</v>
+      </c>
+      <c r="M3" s="10" t="s">
+        <v>88</v>
+      </c>
+      <c r="N3" s="8"/>
+    </row>
+    <row r="4" spans="1:14">
+      <c r="A4" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="C4" s="8">
+        <v>727</v>
+      </c>
+      <c r="D4" s="8">
+        <v>3</v>
+      </c>
+      <c r="E4" s="8">
+        <v>100</v>
+      </c>
+      <c r="F4" s="8">
+        <v>10500</v>
+      </c>
+      <c r="G4" s="8"/>
+      <c r="H4" s="8"/>
+      <c r="I4" s="8"/>
+      <c r="J4" s="8">
+        <v>1000</v>
+      </c>
+      <c r="K4" s="8"/>
+      <c r="L4" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="M4" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="N4" s="8"/>
+    </row>
+    <row r="5" spans="1:14">
+      <c r="A5" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="C5" s="8">
+        <v>727</v>
+      </c>
+      <c r="D5" s="8">
+        <v>3</v>
+      </c>
+      <c r="E5" s="8">
+        <v>100</v>
+      </c>
+      <c r="F5" s="8">
+        <v>10500</v>
+      </c>
+      <c r="G5" s="8"/>
+      <c r="H5" s="8"/>
+      <c r="I5" s="8"/>
+      <c r="J5" s="8">
+        <v>1000</v>
+      </c>
+      <c r="K5" s="8"/>
+      <c r="L5" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="M5" s="10" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14">
+      <c r="A6" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="B6" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="C6" s="8">
+        <v>727</v>
+      </c>
+      <c r="D6" s="8">
+        <v>3</v>
+      </c>
+      <c r="E6" s="8">
+        <v>100</v>
+      </c>
+      <c r="F6" s="8">
+        <v>10500</v>
+      </c>
+      <c r="G6" s="8"/>
+      <c r="H6" s="8"/>
+      <c r="I6" s="8"/>
+      <c r="J6" s="8">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14">
+      <c r="A7" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="B7" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="C7" s="8">
+        <v>727</v>
+      </c>
+      <c r="D7" s="8">
+        <v>3</v>
+      </c>
+      <c r="E7" s="8">
+        <v>100</v>
+      </c>
+      <c r="F7" s="8">
+        <v>10500</v>
+      </c>
+      <c r="G7" s="8"/>
+      <c r="H7" s="8"/>
+      <c r="I7" s="8"/>
+      <c r="J7" s="8">
+        <v>1000</v>
+      </c>
+      <c r="K7" s="8"/>
+      <c r="L7" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="M7" s="10" t="s">
+        <v>61</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/AzentioAutomationFramework_FMS_kowsalyaa/TestData/IISTestData.xlsx
+++ b/AzentioAutomationFramework_FMS_kowsalyaa/TestData/IISTestData.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="135" windowWidth="21075" windowHeight="8010" activeTab="3"/>
+    <workbookView xWindow="120" yWindow="135" windowWidth="21075" windowHeight="8010" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="IIS_Login" sheetId="1" r:id="rId1"/>
@@ -14,13 +14,15 @@
     <sheet name="MTSTestData" sheetId="5" r:id="rId5"/>
     <sheet name="MTS_Login" sheetId="6" r:id="rId6"/>
     <sheet name="AccrualProcess" sheetId="7" r:id="rId7"/>
+    <sheet name="AdvancePrincialSettlement_611" sheetId="8" r:id="rId8"/>
+    <sheet name="AdvancePayment_611" sheetId="9" r:id="rId9"/>
   </sheets>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="216" uniqueCount="115">
   <si>
     <t>UserType</t>
   </si>
@@ -311,6 +313,60 @@
   </si>
   <si>
     <t>DS_AT_AD_007</t>
+  </si>
+  <si>
+    <t>AT_APS_001</t>
+  </si>
+  <si>
+    <t>DS_AT_APS_001</t>
+  </si>
+  <si>
+    <t>AT_APS_002</t>
+  </si>
+  <si>
+    <t>Ds_AT_APS_002</t>
+  </si>
+  <si>
+    <t>AT_APY_012</t>
+  </si>
+  <si>
+    <t>DS_AT_APY_012</t>
+  </si>
+  <si>
+    <t>AT_APS_019</t>
+  </si>
+  <si>
+    <t>DS_AT_APS_019</t>
+  </si>
+  <si>
+    <t>AT_APS_020</t>
+  </si>
+  <si>
+    <t>DS_AT_APS_020</t>
+  </si>
+  <si>
+    <t>31/08/2012</t>
+  </si>
+  <si>
+    <t>AT_APS_021</t>
+  </si>
+  <si>
+    <t>DS_AT_APS_021</t>
+  </si>
+  <si>
+    <t>08/08/2012</t>
+  </si>
+  <si>
+    <t>08/09/2012</t>
+  </si>
+  <si>
+    <t>AT_APS_022</t>
+  </si>
+  <si>
+    <t>DS_AT_APS_022</t>
+  </si>
+  <si>
+    <t>02/09/2012</t>
   </si>
 </sst>
 </file>
@@ -457,7 +513,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
@@ -495,6 +551,7 @@
     <xf numFmtId="0" fontId="0" fillId="9" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1291,8 +1348,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:N7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:N2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1942,7 +1999,7 @@
   <dimension ref="A1:N7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J18" sqref="J18"/>
+      <selection activeCell="A3" sqref="A3:N3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2204,4 +2261,379 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:N7"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="I24" sqref="I24"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="17.42578125" customWidth="1"/>
+    <col min="2" max="2" width="23.85546875" customWidth="1"/>
+    <col min="3" max="3" width="23.28515625" customWidth="1"/>
+    <col min="4" max="4" width="27.7109375" customWidth="1"/>
+    <col min="5" max="5" width="23.5703125" customWidth="1"/>
+    <col min="6" max="6" width="23.7109375" customWidth="1"/>
+    <col min="7" max="7" width="28.42578125" customWidth="1"/>
+    <col min="8" max="8" width="26.42578125" customWidth="1"/>
+    <col min="9" max="9" width="30.42578125" customWidth="1"/>
+    <col min="10" max="10" width="20.7109375" customWidth="1"/>
+    <col min="11" max="11" width="24.28515625" customWidth="1"/>
+    <col min="12" max="12" width="29.140625" customWidth="1"/>
+    <col min="13" max="13" width="30.28515625" customWidth="1"/>
+    <col min="14" max="14" width="30.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:14">
+      <c r="A1" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="E1" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="F1" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="G1" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="H1" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="I1" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="J1" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="K1" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="L1" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="M1" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="N1" s="5" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14">
+      <c r="A2" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="C2" s="8">
+        <v>727</v>
+      </c>
+      <c r="D2" s="8">
+        <v>3</v>
+      </c>
+      <c r="E2" s="8">
+        <v>100</v>
+      </c>
+      <c r="F2" s="8">
+        <v>10500</v>
+      </c>
+      <c r="G2" s="8"/>
+      <c r="H2" s="8"/>
+      <c r="I2" s="8"/>
+      <c r="J2" s="8">
+        <v>1000</v>
+      </c>
+      <c r="K2" s="8"/>
+      <c r="L2" s="10"/>
+      <c r="M2" s="10"/>
+      <c r="N2" s="8">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14">
+      <c r="A3" s="25" t="s">
+        <v>99</v>
+      </c>
+      <c r="B3" s="25" t="s">
+        <v>100</v>
+      </c>
+      <c r="C3" s="8">
+        <v>727</v>
+      </c>
+      <c r="D3" s="8">
+        <v>3</v>
+      </c>
+      <c r="E3" s="8">
+        <v>100</v>
+      </c>
+      <c r="F3" s="8">
+        <v>10500</v>
+      </c>
+      <c r="G3" s="8"/>
+      <c r="H3" s="8"/>
+      <c r="I3" s="8"/>
+      <c r="J3" s="8">
+        <v>1000</v>
+      </c>
+      <c r="K3" s="8"/>
+      <c r="L3" s="10"/>
+      <c r="M3" s="10"/>
+      <c r="N3" s="8">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14">
+      <c r="A4" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="C4" s="8">
+        <v>727</v>
+      </c>
+      <c r="D4" s="8">
+        <v>3</v>
+      </c>
+      <c r="E4" s="8">
+        <v>100</v>
+      </c>
+      <c r="F4" s="8">
+        <v>10500</v>
+      </c>
+      <c r="G4" s="8"/>
+      <c r="H4" s="8"/>
+      <c r="I4" s="8"/>
+      <c r="J4" s="8">
+        <v>1000</v>
+      </c>
+      <c r="K4" s="8"/>
+      <c r="L4" s="10"/>
+      <c r="M4" s="10"/>
+      <c r="N4" s="8"/>
+    </row>
+    <row r="5" spans="1:14">
+      <c r="A5" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="C5" s="8">
+        <v>727</v>
+      </c>
+      <c r="D5" s="8">
+        <v>3</v>
+      </c>
+      <c r="E5" s="8">
+        <v>100</v>
+      </c>
+      <c r="F5" s="8">
+        <v>15000</v>
+      </c>
+      <c r="G5" s="8"/>
+      <c r="H5" s="8"/>
+      <c r="I5" s="8"/>
+      <c r="J5" s="8">
+        <v>1000</v>
+      </c>
+      <c r="K5" s="8"/>
+      <c r="L5" s="10" t="s">
+        <v>107</v>
+      </c>
+      <c r="M5" s="10" t="s">
+        <v>107</v>
+      </c>
+      <c r="N5" s="8"/>
+    </row>
+    <row r="6" spans="1:14">
+      <c r="A6" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="B6" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="C6" s="8">
+        <v>727</v>
+      </c>
+      <c r="D6" s="8">
+        <v>3</v>
+      </c>
+      <c r="E6" s="8">
+        <v>100</v>
+      </c>
+      <c r="F6" s="8">
+        <v>15000</v>
+      </c>
+      <c r="G6" s="8"/>
+      <c r="H6" s="8"/>
+      <c r="I6" s="8"/>
+      <c r="J6" s="8">
+        <v>1000</v>
+      </c>
+      <c r="K6" s="8"/>
+      <c r="L6" s="10" t="s">
+        <v>110</v>
+      </c>
+      <c r="M6" s="10" t="s">
+        <v>111</v>
+      </c>
+      <c r="N6" s="8"/>
+    </row>
+    <row r="7" spans="1:14">
+      <c r="A7" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="B7" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="C7" s="8">
+        <v>727</v>
+      </c>
+      <c r="D7" s="8">
+        <v>3</v>
+      </c>
+      <c r="E7" s="8">
+        <v>100</v>
+      </c>
+      <c r="F7" s="8">
+        <v>15000</v>
+      </c>
+      <c r="G7" s="8"/>
+      <c r="H7" s="8"/>
+      <c r="I7" s="8"/>
+      <c r="J7" s="8">
+        <v>1000</v>
+      </c>
+      <c r="K7" s="8"/>
+      <c r="L7" s="10" t="s">
+        <v>114</v>
+      </c>
+      <c r="M7" s="10" t="s">
+        <v>114</v>
+      </c>
+      <c r="N7" s="8"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:N2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="26.42578125" customWidth="1"/>
+    <col min="2" max="2" width="28" customWidth="1"/>
+    <col min="3" max="3" width="31.5703125" customWidth="1"/>
+    <col min="4" max="4" width="31.28515625" customWidth="1"/>
+    <col min="5" max="5" width="31.85546875" customWidth="1"/>
+    <col min="6" max="6" width="25.140625" customWidth="1"/>
+    <col min="7" max="7" width="21.85546875" customWidth="1"/>
+    <col min="8" max="8" width="28.28515625" customWidth="1"/>
+    <col min="9" max="9" width="29.85546875" customWidth="1"/>
+    <col min="10" max="10" width="21.7109375" customWidth="1"/>
+    <col min="11" max="11" width="21.42578125" customWidth="1"/>
+    <col min="12" max="12" width="21.85546875" customWidth="1"/>
+    <col min="13" max="13" width="11" customWidth="1"/>
+    <col min="14" max="14" width="9.140625" customWidth="1"/>
+    <col min="15" max="15" width="14.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:14">
+      <c r="A1" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="E1" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="F1" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="G1" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="H1" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="I1" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="J1" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="K1" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="L1" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="M1" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="N1" s="5"/>
+    </row>
+    <row r="2" spans="1:14">
+      <c r="A2" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="C2" s="8">
+        <v>727</v>
+      </c>
+      <c r="D2" s="8">
+        <v>3</v>
+      </c>
+      <c r="E2" s="8">
+        <v>100</v>
+      </c>
+      <c r="F2" s="8">
+        <v>10500</v>
+      </c>
+      <c r="G2" s="8"/>
+      <c r="H2" s="8"/>
+      <c r="I2" s="8"/>
+      <c r="J2" s="8">
+        <v>1000</v>
+      </c>
+      <c r="K2" s="8"/>
+      <c r="L2" s="10"/>
+      <c r="M2" s="10"/>
+      <c r="N2" s="8"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/AzentioAutomationFramework_FMS_kowsalyaa/TestData/IISTestData.xlsx
+++ b/AzentioAutomationFramework_FMS_kowsalyaa/TestData/IISTestData.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="135" windowWidth="21075" windowHeight="8010" activeTab="7"/>
+    <workbookView xWindow="120" yWindow="135" windowWidth="21075" windowHeight="8010" firstSheet="1" activeTab="9"/>
   </bookViews>
   <sheets>
     <sheet name="IIS_Login" sheetId="1" r:id="rId1"/>
@@ -16,13 +16,14 @@
     <sheet name="AccrualProcess" sheetId="7" r:id="rId7"/>
     <sheet name="AdvancePrincialSettlement_611" sheetId="8" r:id="rId8"/>
     <sheet name="AdvancePayment_611" sheetId="9" r:id="rId9"/>
+    <sheet name="IISParameter" sheetId="10" r:id="rId10"/>
   </sheets>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="216" uniqueCount="115">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="229" uniqueCount="123">
   <si>
     <t>UserType</t>
   </si>
@@ -367,6 +368,30 @@
   </si>
   <si>
     <t>02/09/2012</t>
+  </si>
+  <si>
+    <t>AT_IISPRM_075</t>
+  </si>
+  <si>
+    <t>DS_AT_IISPRM_075</t>
+  </si>
+  <si>
+    <t>Brief name eng</t>
+  </si>
+  <si>
+    <t>Long Discription</t>
+  </si>
+  <si>
+    <t>Edit Brief name eng</t>
+  </si>
+  <si>
+    <t>Testdataa</t>
+  </si>
+  <si>
+    <t>Edit Long Discription</t>
+  </si>
+  <si>
+    <t>Charges Code</t>
   </si>
 </sst>
 </file>
@@ -402,7 +427,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="10">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -457,8 +482,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="4">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -509,11 +540,37 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
@@ -552,6 +609,11 @@
     <xf numFmtId="49" fontId="0" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1088,6 +1150,76 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:G2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F7" sqref="F7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="15" customWidth="1"/>
+    <col min="2" max="2" width="19.5703125" customWidth="1"/>
+    <col min="3" max="3" width="20.28515625" customWidth="1"/>
+    <col min="4" max="4" width="23.28515625" customWidth="1"/>
+    <col min="5" max="5" width="21.28515625" customWidth="1"/>
+    <col min="6" max="6" width="26.85546875" customWidth="1"/>
+    <col min="7" max="7" width="18.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7">
+      <c r="A1" s="26" t="s">
+        <v>41</v>
+      </c>
+      <c r="B1" s="28" t="s">
+        <v>42</v>
+      </c>
+      <c r="C1" s="30" t="s">
+        <v>117</v>
+      </c>
+      <c r="D1" s="30" t="s">
+        <v>118</v>
+      </c>
+      <c r="E1" s="30" t="s">
+        <v>122</v>
+      </c>
+      <c r="F1" s="30" t="s">
+        <v>119</v>
+      </c>
+      <c r="G1" s="30" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" s="27" t="s">
+        <v>115</v>
+      </c>
+      <c r="B2" s="29" t="s">
+        <v>116</v>
+      </c>
+      <c r="C2" s="30" t="s">
+        <v>82</v>
+      </c>
+      <c r="D2" s="30" t="s">
+        <v>82</v>
+      </c>
+      <c r="E2" s="30">
+        <v>3</v>
+      </c>
+      <c r="F2" s="30" t="s">
+        <v>120</v>
+      </c>
+      <c r="G2" s="30" t="s">
+        <v>120</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E13"/>
@@ -2267,7 +2399,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:N7"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I24" sqref="I24"/>
     </sheetView>
   </sheetViews>
@@ -2539,7 +2671,7 @@
   <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection sqref="A1:B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
